--- a/data/trans_bre/P5_6-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P5_6-Estudios-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,84</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,92</t>
+          <t>20,87</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,0%</t>
+          <t>28,61%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 11,55</t>
+          <t>-9,84; 9,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,81; 32,77</t>
+          <t>-2,06; 55,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 13,29</t>
+          <t>-10,16; 11,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 52,08</t>
+          <t>-2,11; 149,8</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-2,59</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>-2,01%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,09%</t>
+          <t>-2,65%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 3,74</t>
+          <t>-6,08; 1,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 2,97</t>
+          <t>-6,97; 1,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 4,02</t>
+          <t>-6,14; 1,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 3,13</t>
+          <t>-7,07; 1,05</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,78</t>
+          <t>-4,27</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,86</t>
+          <t>-4,11</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,84%</t>
+          <t>-4,31%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,94%</t>
+          <t>-4,15%</t>
         </is>
       </c>
     </row>
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,87; -0,5</t>
+          <t>-8,34; -0,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 0,58</t>
+          <t>-8,16; -0,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,03; -0,52</t>
+          <t>-8,38; -0,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 0,6</t>
+          <t>-8,22; -0,5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -789,30 +789,98 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 1,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 5,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 1,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 6,52</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-2,57</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-2,63%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-5,34; 0,0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-3,7; 9,84</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-5,41; 0,0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-3,78; 11,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/P5_6-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P5_6-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>20,87</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,25%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>28,61%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.2348352292050437</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>16.23930604268714</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.002510099303494101</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.2096467945437866</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-9,84; 9,91</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,06; 55,91</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-10,16; 11,34</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-2,11; 149,8</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-9.837899987195691</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.982434052707371</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.1015993551898846</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.02997340633593506</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>9.909892306949754</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>47.82925175352781</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.1134219740356145</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>1.038214124767264</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,97</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,59</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-2,01%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-2,65%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,08; 1,42</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-6,97; 1,06</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-6,14; 1,45</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-7,07; 1,05</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-1.966081410715759</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-2.128676645432737</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.02007933157427035</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.02178649533092701</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-4,27</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-4,11</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-4,31%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-4,15%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-6.079960068656209</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-6.168970960309463</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.06135869435887741</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.06194072778692607</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-8,34; -0,82</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-8,16; -0,48</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-8,38; -0,85</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-8,22; -0,5</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1.418265450408742</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.771429457318565</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.01447554890904935</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.01861055327444476</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,132 +716,139 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-4.265003888110918</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-5.042910574504811</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>-0.04305312291461507</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.05084924418346201</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.344251392045152</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-10.23957949131925</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.08378832443201299</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.1025088889352089</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-0.8241162057831772</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-1.228200568574681</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>-0.00851780021035432</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>-0.01240632519183506</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-2,57</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-2,63%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,25%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-5,34; 0,0</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-3,7; 9,84</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-5,41; 0,0</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-3,78; 11,45</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-2.573895948912797</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.7128545495448169</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.02633039970126433</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.007468476381182637</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-5.343337983371959</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.318207921384478</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.05413893590700134</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.04412301535951957</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.004786417229262071</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.999610252804575</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>3.957207638160653e-05</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.07928025540162346</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
